--- a/flow-android-login.xlsx
+++ b/flow-android-login.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utetsuo/workplace/amazonpay-mobile-sample_android/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC655BF-5868-CC46-B420-2416A2008042}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816433C4-BE48-5C47-B945-24E05AB3238A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="-3080" windowWidth="37920" windowHeight="20600" activeTab="1" xr2:uid="{31041FA4-F250-5B48-8777-A21A45303114}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28300" windowHeight="16420" xr2:uid="{31041FA4-F250-5B48-8777-A21A45303114}"/>
   </bookViews>
   <sheets>
     <sheet name="Native" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="33">
   <si>
     <t>擬似AmazonPayボタン</t>
   </si>
@@ -94,15 +94,6 @@
     <t>AccessToken, 郵便番号、</t>
   </si>
   <si>
-    <t>Tokenを発行し、取得した情報を</t>
-  </si>
-  <si>
-    <t>Tokenをキーに保存して、</t>
-  </si>
-  <si>
-    <t>Tokenを返却</t>
-  </si>
-  <si>
     <t>Login後画面</t>
   </si>
   <si>
@@ -119,6 +110,21 @@
   </si>
   <si>
     <t>Login後画面起動Activity</t>
+  </si>
+  <si>
+    <t>Login後情報保存用</t>
+  </si>
+  <si>
+    <t>にCacheを登録し、</t>
+  </si>
+  <si>
+    <t>tokenを取得</t>
+  </si>
+  <si>
+    <t>Cacheに保存</t>
+  </si>
+  <si>
+    <t>Cacheを取得</t>
   </si>
 </sst>
 </file>
@@ -1635,8 +1641,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2806700" y="647700"/>
-          <a:ext cx="3835400" cy="6219568"/>
+          <a:off x="2819400" y="651933"/>
+          <a:ext cx="3856567" cy="6219568"/>
           <a:chOff x="13538200" y="647700"/>
           <a:chExt cx="3835400" cy="6219568"/>
         </a:xfrm>
@@ -2070,6 +2076,292 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>148968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Elbow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32314545-9BEF-6F43-BBC8-DF1761C959E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="2"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2655759" y="8935909"/>
+          <a:ext cx="10906382" cy="6769100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>387234</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>72060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rounded Rectangular Callout 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE4057BE-028E-064B-B2FD-559DC1E60C5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1930400" y="7327900"/>
+          <a:ext cx="1758834" cy="694360"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 102042"/>
+            <a:gd name="adj2" fmla="val -37803"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>取得したtokenはアプリ側に保持する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>242834</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>17501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>328384</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>120901</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rounded Rectangular Callout 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F4E7AF9-B386-CB45-92C0-53C88BC0D4D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9369901" y="4708034"/>
+          <a:ext cx="2574750" cy="1119400"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -54873"/>
+            <a:gd name="adj2" fmla="val 181370"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Cacheをコピーして、新しくtokenを発行し直して</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>登録する。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>以後の受注情報の更新は、この新しく発行した</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>に対して行う。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>158955</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>84743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>3782</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34519</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rounded Rectangular Callout 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4FC9C74-9C63-0F4A-8C0A-54236945543A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19145455" y="2739043"/>
+          <a:ext cx="3146827" cy="965776"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 87688"/>
+            <a:gd name="adj2" fmla="val 29002"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>古いtoken, 新しいtokenの両方を受け取る。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>古いtokenと、アプリが保持していたtokenが一致しなければ、エラーとする。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Cache取得・更新には新しいtokenを使う。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3495,8 +3787,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2717800" y="7416800"/>
-          <a:ext cx="3835400" cy="6219568"/>
+          <a:off x="2739661" y="7571282"/>
+          <a:ext cx="3864547" cy="6369470"/>
           <a:chOff x="13538200" y="647700"/>
           <a:chExt cx="3835400" cy="6219568"/>
         </a:xfrm>
@@ -3814,8 +4106,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="34315400" y="7416800"/>
-          <a:ext cx="3822700" cy="6198973"/>
+          <a:off x="34614162" y="7571282"/>
+          <a:ext cx="3859135" cy="6348875"/>
           <a:chOff x="29083000" y="622300"/>
           <a:chExt cx="3822700" cy="6198973"/>
         </a:xfrm>
@@ -4139,6 +4431,293 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Elbow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{387FF2B6-39B6-014A-AA36-F144093D10FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4546600" y="13563600"/>
+          <a:ext cx="12725400" cy="4210050"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -100"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>61415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>728260</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>131185</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rounded Rectangular Callout 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28830CBC-ABE1-2E41-AB38-CF2861A5EE1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6502400" y="2525215"/>
+          <a:ext cx="1769660" cy="679370"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 78214"/>
+            <a:gd name="adj2" fmla="val 82912"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>取得したtokenはアプリ側に保持する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>34499</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>179823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>98188</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>50042</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rounded Rectangular Callout 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FD744F-84B8-1347-880E-F8A58A016E26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13982021" y="5046283"/>
+          <a:ext cx="2525017" cy="1084024"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -43035"/>
+            <a:gd name="adj2" fmla="val 158679"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Cacheをコピーして、新しくtokenを発行し直して</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>登録する。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>以後の受注情報の更新は、この新しく発行した</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>に対して行う。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>194556</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>39562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>10236</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>172551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rounded Rectangular Callout 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A907650-8E3A-794B-ADA4-B28511CBAB36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24807830" y="2680712"/>
+          <a:ext cx="3097450" cy="942193"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 87688"/>
+            <a:gd name="adj2" fmla="val 29002"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>古いtoken, 新しいtokenの両方を受け取る。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>古いtokenと、アプリが保持していたtokenが一致しなければ、エラーとする。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Cache取得・更新には新しいtokenを使う。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4443,9 +5022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825D99BE-63C2-7E44-889E-F179BF7D5A5E}">
   <dimension ref="A1:AI93"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4524,7 +5101,7 @@
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
@@ -5549,7 +6126,7 @@
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
@@ -5587,7 +6164,7 @@
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
@@ -5825,7 +6402,9 @@
       <c r="C39" s="8"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="F39" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
@@ -5862,7 +6441,9 @@
       <c r="C40" s="8"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="F40" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -5900,7 +6481,9 @@
       <c r="C41" s="8"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="F41" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -7048,7 +7631,7 @@
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
       <c r="V72" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W72" s="6"/>
       <c r="X72" s="6"/>
@@ -7380,9 +7963,7 @@
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
-      <c r="U81" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="U81" s="6"/>
       <c r="V81" s="6"/>
       <c r="W81" s="6"/>
       <c r="X81" s="6"/>
@@ -7419,7 +8000,7 @@
       <c r="S82" s="6"/>
       <c r="T82" s="6"/>
       <c r="U82" s="6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="V82" s="6"/>
       <c r="W82" s="6"/>
@@ -7430,7 +8011,9 @@
       <c r="AB82" s="6"/>
       <c r="AC82" s="6"/>
       <c r="AD82" s="6"/>
-      <c r="AE82" s="6"/>
+      <c r="AE82" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="AF82" s="6"/>
       <c r="AG82" s="6"/>
       <c r="AH82" s="6"/>
@@ -7456,9 +8039,7 @@
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
       <c r="T83" s="6"/>
-      <c r="U83" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="U83" s="6"/>
       <c r="V83" s="6"/>
       <c r="W83" s="6"/>
       <c r="X83" s="6"/>
@@ -7846,7 +8427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9012B389-EA23-C448-888F-49B1F64E5DEE}">
   <dimension ref="A1:AU93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="61" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7917,7 +8498,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -7944,7 +8525,7 @@
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
       <c r="AK3" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL3" s="6"/>
       <c r="AM3" s="6"/>
@@ -9301,7 +9882,7 @@
       <c r="AF31" s="6"/>
       <c r="AG31" s="6"/>
       <c r="AH31" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI31" s="6"/>
       <c r="AJ31" s="6"/>
@@ -9351,7 +9932,7 @@
       <c r="AF32" s="6"/>
       <c r="AG32" s="6"/>
       <c r="AH32" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI32" s="6"/>
       <c r="AJ32" s="6"/>
@@ -9413,7 +9994,7 @@
       <c r="AP33" s="6"/>
       <c r="AQ33" s="6"/>
       <c r="AR33" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AS33" s="6"/>
       <c r="AT33" s="6"/>
@@ -9778,7 +10359,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
@@ -11288,7 +11869,7 @@
       <c r="AA72" s="6"/>
       <c r="AB72" s="6"/>
       <c r="AC72" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD72" s="6"/>
       <c r="AE72" s="6"/>
@@ -11316,7 +11897,9 @@
       <c r="C73" s="8"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
+      <c r="F73" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
@@ -11367,7 +11950,9 @@
       <c r="C74" s="8"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
+      <c r="F74" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
@@ -11417,7 +12002,9 @@
       <c r="C75" s="8"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
+      <c r="F75" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
@@ -11728,9 +12315,7 @@
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
-      <c r="AB81" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="AB81" s="6"/>
       <c r="AC81" s="6"/>
       <c r="AD81" s="6"/>
       <c r="AE81" s="6"/>
@@ -11746,7 +12331,9 @@
       <c r="AO81" s="6"/>
       <c r="AP81" s="6"/>
       <c r="AQ81" s="6"/>
-      <c r="AR81" s="6"/>
+      <c r="AR81" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="AS81" s="6"/>
       <c r="AT81" s="6"/>
       <c r="AU81" s="7"/>
@@ -11779,7 +12366,7 @@
       <c r="Z82" s="6"/>
       <c r="AA82" s="6"/>
       <c r="AB82" s="6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="AC82" s="6"/>
       <c r="AD82" s="6"/>
@@ -11828,9 +12415,7 @@
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
       <c r="AA83" s="6"/>
-      <c r="AB83" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="AB83" s="6"/>
       <c r="AC83" s="6"/>
       <c r="AD83" s="6"/>
       <c r="AE83" s="6"/>
